--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1601.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1601.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.216802678466853</v>
+        <v>0.5906755328178406</v>
       </c>
       <c r="B1">
-        <v>2.476217036699873</v>
+        <v>1.473466873168945</v>
       </c>
       <c r="C1">
-        <v>5.302480533165571</v>
+        <v>5.993953227996826</v>
       </c>
       <c r="D1">
-        <v>2.158395552994844</v>
+        <v>1.93631386756897</v>
       </c>
       <c r="E1">
-        <v>0.9990643071485736</v>
+        <v>1.551906108856201</v>
       </c>
     </row>
   </sheetData>
